--- a/Warehouse/BA/judgement_logs_run4o.xlsx
+++ b/Warehouse/BA/judgement_logs_run4o.xlsx
@@ -456,19 +456,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;03;53.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;11;14.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The theme for spirit week has been decided through a compromise.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -478,13 +478,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_22;52;40.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;24;22.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -500,19 +500,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;02;01.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;29;20.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision on the theme for spirit week ended in no consensus.
+MSG: The selected theme for spirit week is "Crazy Sock and Hat Day."
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -522,13 +522,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_22;59;49.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;07;52.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week has been decided as there was no consensus reached between the participants on a specific day.
+MSG: Based on the discussion, it seems there was no consensus reached on selecting a theme for spirit week.
 </t>
         </is>
       </c>
@@ -544,13 +544,13 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;07;40.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;09;43.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached for the theme of spirit week.
+MSG: The decision for the spirit week theme resulted in no consensus.
 </t>
         </is>
       </c>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;13;06.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;28;39.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -588,13 +588,13 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;04;49.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;06;17.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The outcome of the discussion resulted in no consensus for the theme of spirit week.
 </t>
         </is>
       </c>
@@ -610,19 +610,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_22;50;37.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;17;01.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The theme for spirit week has been selected based on the consensus reached by both parties. They agreed on a combined theme, which is likely a fun and collaborative idea.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -632,13 +632,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_22;53;39.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;26;20.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week, so the decision is "no consensus."
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -654,13 +654,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;10;58.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;09;14.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached for the theme for spirit week.
+MSG: The discussion did not result in a consensus on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -676,13 +676,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;09;13.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;21;44.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus reached between the parties involved, the decision resulted in no consensus for the theme of spirit week.
+MSG: There was no consensus on the theme for spirit week, so the decision has been recorded.
 </t>
         </is>
       </c>
@@ -698,19 +698,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_22;55;03.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;14;32.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The result of the discussion led to no consensus on the theme for spirit week, so the appropriate function has been called.
+MSG: The selected theme for spirit week is a combination of Crazy Sock Day and Crazy Hat Day, as both parties came to a compromise.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -720,13 +720,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;12;06.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;25;03.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week is set as a compromise, combining elements from both ideas.
+MSG: The theme for spirit week is a combination of Crazy Hat Day and Crazy Sock Day, as both parties came to a compromise.
 </t>
         </is>
       </c>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;03;00.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;13;01.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus reached between the two sides, the function for no consensus has been called.
+MSG: There was no consensus reached on the theme for spirit week, so the appropriate result has been called.
 </t>
         </is>
       </c>
@@ -764,13 +764,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_22;59;10.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;20;50.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The result is that there was no consensus.
+MSG: The decision resulted in no consensus on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -786,13 +786,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_22;55;59.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;13;51.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The discussion did not result in a consensus, so the decision for the theme of spirit week is that there is no consensus.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_22;54;22.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;12;17.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The selected theme for spirit week is "Crazy Sock and Hat Day."
+MSG: The outcome of the discussion resulted in no consensus.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -830,13 +830,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_22;58;07.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;25;34.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for the theme of spirit week has resulted in no consensus.
+MSG: The outcome is that there was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -852,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;10;08.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;23;30.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week has been decided as Crazy Hat Day.
+MSG: The discussion did not result in a consensus, so I have called the function for no consensus.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -874,13 +874,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_22;57;19.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;08;38.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome of the discussion is that both themes will be presented for a vote, indicating a compromise was reached for spirit week.
+MSG: The theme for spirit week has been decided as Crazy Sock Day, following a compromise between both parties.
 </t>
         </is>
       </c>
@@ -896,13 +896,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;14;25.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;07;15.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -918,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;17;32.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;27;35.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: The outcome of the discussion resulted in no consensus.
 </t>
         </is>
       </c>
@@ -940,19 +940,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;00;34.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;16;35.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The decision for spirit week has been made: a hybrid theme combining both Crazy Hat Day and Crazy Sock Day has been selected!
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -962,13 +962,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;16;00.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;10;31.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached between Alice and Jack on the theme for spirit week.
+MSG: The outcome of the discussion is that there was no consensus reached on a theme for spirit week.
 </t>
         </is>
       </c>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_22;51;46.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;19;59.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The result of the discussion is that there was no consensus reached on the theme for spirit week.
+MSG: There was no consensus reached regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;06;04.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;16;03.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for the theme of spirit week ended in no consensus.
+MSG: It seems there was no consensus reached for the theme of spirit week.
 </t>
         </is>
       </c>
@@ -1028,13 +1028,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;06;59.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;21;15.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus reached between Alice and Jack, I have called the no_consensus function.
+MSG: There was no consensus reached for the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1050,13 +1050,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;08;26.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;15;01.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week, so the decision stands as no consensus.
+MSG: There was no consensus reached on the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1072,13 +1072,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_23;15;17.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;22;37.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The result of the discussion is that there was no consensus reached on the theme for spirit week.
+MSG: Since there was no consensus reached regarding the theme for spirit week, I have called the function for no consensus.
 </t>
         </is>
       </c>
@@ -1094,19 +1094,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_27_2025 at_22;49;50.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;19;20.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for the theme of spirit week resulted in no consensus.
+MSG: The theme for spirit week is Crazy Sock Day, as decided by both parties.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/BA/judgement_logs_run4o.xlsx
+++ b/Warehouse/BA/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,13 +456,13 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;11;14.json</t>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;56;27.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week has been decided through a compromise.
+MSG: The decision for spirit week is that they came to a compromise: "Crazy Hat and Sock Day" has been selected!
 </t>
         </is>
       </c>
@@ -478,19 +478,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;24;22.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;33;00.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The theme for spirit week has been decided as a compromise, incorporating both Crazy Sock Day and Crazy Hat Day!
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -500,13 +500,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;29;20.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;11;14.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The selected theme for spirit week is "Crazy Sock and Hat Day."
+MSG: The theme for spirit week is a compromise, combining elements from both Crazy Sock Day and Crazy Hat Day.
 </t>
         </is>
       </c>
@@ -522,19 +522,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;07;52.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_11;53;29.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the discussion, it seems there was no consensus reached on selecting a theme for spirit week.
+MSG: The decision has been made: they came to a compromise for the theme of spirit week.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -544,19 +544,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;09;43.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;10;33.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for the spirit week theme resulted in no consensus.
+MSG: The theme for spirit week is a compromise, as both parties agree to promote "Crazy Hat and Accessory Day."
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -566,19 +566,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;28;39.json</t>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;22;17.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: The outcome of the discussion is that they came to a compromise for the spirit week theme.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -588,19 +588,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;06;17.json</t>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;27;48.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome of the discussion resulted in no consensus for the theme of spirit week.
+MSG: The theme for spirit week is a combined Crazy Hats and Crazy Socks Day, as both parties reached a consensus.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -610,13 +610,13 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;17;01.json</t>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;23;27.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week has been selected based on the consensus reached by both parties. They agreed on a combined theme, which is likely a fun and collaborative idea.
+MSG: The decision for spirit week is that they came to a compromise.
 </t>
         </is>
       </c>
@@ -632,19 +632,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;26;20.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_11;57;39.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The decision for spirit week is that they came to a compromise.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -654,13 +654,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;09;14.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;51;58.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The discussion did not result in a consensus on the theme for spirit week.
+MSG: The outcome is no consensus. Since Alice and Jack could not agree on a theme for spirit week, there will be no selected theme.
 </t>
         </is>
       </c>
@@ -676,19 +676,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;21;44.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;11;35.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus on the theme for spirit week, so the decision has been recorded.
+MSG: The theme for spirit week has been decided as a compromise: "Crazy Sock and Hat Day."
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -698,13 +698,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;14;32.json</t>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;45;41.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The selected theme for spirit week is a combination of Crazy Sock Day and Crazy Hat Day, as both parties came to a compromise.
+MSG: The decision for this week's spirit week theme has been made based on the consensus reached: they came to a compromise.
 </t>
         </is>
       </c>
@@ -720,13 +720,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;25;03.json</t>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;29;48.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week is a combination of Crazy Hat Day and Crazy Sock Day, as both parties came to a compromise.
+MSG: The outcome for spirit week is that both "Crazy Sock Day" and "Crazy Hat Day" have been selected through a compromise.
 </t>
         </is>
       </c>
@@ -742,13 +742,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;13;01.json</t>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;15;28.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week, so the appropriate result has been called.
+MSG: It seems that there was no consensus reached regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -764,13 +764,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;20;50.json</t>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;34;28.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no consensus on the theme for spirit week.
+MSG: Since Jack and Alice did not come to a consensus, I have called the function for no consensus.
 </t>
         </is>
       </c>
@@ -786,19 +786,19 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;13;51.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;53;16.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The decision for spirit week is that they came to a compromise. The theme will be "Crazy Hat Day" with optional crazy socks as an accessory.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;12;17.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;24;22.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome of the discussion resulted in no consensus.
+MSG: The theme for spirit week is a compromise: Crazy Hat and Sock Day has been selected!
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -830,19 +830,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;25;34.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;04;35.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome is that there was no consensus reached on the theme for spirit week.
+MSG: The decision has been made: they came to a compromise! The theme for spirit week will involve both Crazy Hat Day and Crazy Sock Day.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -852,19 +852,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;23;30.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_18;04;17.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The discussion did not result in a consensus, so I have called the function for no consensus.
+MSG: The theme for spirit week is a compromise between Crazy Hat Day and Crazy Sock Day.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -874,19 +874,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;08;38.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;06;32.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week has been decided as Crazy Sock Day, following a compromise between both parties.
+MSG: The outcome of the discussion did not lead to a consensus on whether to select crazy hat day or crazy sock day, so a decision could not be made.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">they_came_to_a_compromise, </t>
+          <t xml:space="preserve">no_consensus, </t>
         </is>
       </c>
     </row>
@@ -896,19 +896,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;07;15.json</t>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_21;01;44.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: The outcome of the discussion is that they came to a compromise.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -918,13 +918,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;27;35.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;58;45.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome of the discussion resulted in no consensus.
+MSG: The result of the discussion did not lead to a consensus, so the appropriate call is to indicate that there was no agreement.
 </t>
         </is>
       </c>
@@ -940,13 +940,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;16;35.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;29;20.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision for spirit week has been made: a hybrid theme combining both Crazy Hat Day and Crazy Sock Day has been selected!
+MSG: The theme for spirit week is "Crazy Sock and Hat Day," as both Alice and Jack came to a compromise.
 </t>
         </is>
       </c>
@@ -962,19 +962,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;10;31.json</t>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;59;45.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The outcome of the discussion is that there was no consensus reached on a theme for spirit week.
+MSG: The decision for spirit week has been finalized, and they have come to a compromise.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -984,13 +984,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;19;59.json</t>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;42;19.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached regarding the theme for spirit week.
+MSG: The outcome of the discussion is that there was no consensus reached between both parties regarding the theme for spirit week.
 </t>
         </is>
       </c>
@@ -1006,13 +1006,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;16;03.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;03;00.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It seems there was no consensus reached for the theme of spirit week.
+MSG: The outcome of the discussion resulted in no consensus. Therefore, I have called the function for no consensus.
 </t>
         </is>
       </c>
@@ -1028,13 +1028,13 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;21;15.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;07;52.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached for the theme for spirit week.
+MSG: The outcome of the discussion did not result in a consensus between Jack and Alice. Therefore, I have called no_consensus.
 </t>
         </is>
       </c>
@@ -1050,13 +1050,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;15;01.json</t>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;37;39.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: There was no consensus reached on the theme for spirit week.
+MSG: Based on the discussion, there was no consensus reached between Alice and Jack on whether to select crazy hat day or crazy sock day for spirit week. Therefore, the result is no consensus.
 </t>
         </is>
       </c>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;22;37.json</t>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;23;32.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Since there was no consensus reached regarding the theme for spirit week, I have called the function for no consensus.
+MSG: The decision has been made: they came to a compromise for spirit week!
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_consensus, </t>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>
@@ -1094,19 +1094,3957 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;46;24.json</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week did not result in a consensus.
+</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_21;00;17.json</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;12;57.json</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It seems that there was no consensus reached regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;09;43.json</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not lead to a consensus. Therefore, I have called the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;42;00.json</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between Alice and Jack regarding the theme for spirit week, I will call the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;09;58.json</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;35;52.json</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Sock and Hat Day," as both Jack and Alice came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;19;37.json</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus between the two parties regarding the theme for spirit week, I have called the function indicating this outcome.
+</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;27;58.json</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise between "Crazy Sock Day" and "Crazy Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_11;56;47.json</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision is that they came to a compromise for the theme of spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;05;44.json</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise, with both Crazy Sock Day and Crazy Hat Day being selected!
+</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;35;14.json</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week was a compromise: Crazy Hat and Sock Day was selected.
+</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;46;33.json</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise that includes both crazy sock day and crazy hat day!
+</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;50;49.json</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not result in a consensus for either Crazy Hat Day or Crazy Sock Day, so no definite theme was selected for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;56;12.json</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no clear consensus between Alice and Jack on the theme for spirit week, the decision is that there is no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;01;59.json</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;50;09.json</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The selected theme for spirit week is Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;44;04.json</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It seems there was no consensus reached between Alice and Jack regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;17;18.json</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;33;58.json</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise between Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;32;21.json</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise that combines both Crazy Hat Day and Crazy Sock Day!
+</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;55;04.json</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The discussion did not result in a consensus on the theme for spirit week, so the result is no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;56;49.json</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion resulted in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;28;09.json</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise between crazy hat day and crazy sock day.
+</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;28;39.json</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise, allowing both crazy hat day and crazy sock day to be celebrated together!
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;34;55.json</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;24;47.json</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;07;48.json</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It seems that there was no consensus reached between Alice and Jack regarding the theme for spirit week. Therefore, I call the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;54;30.json</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion led to no consensus being reached on the spirit week theme.
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;21;14.json</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not lead to a consensus between Alice and Jack. Therefore, the result is that there is no selected theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;49;26.json</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week resulted in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;27;06.json</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;00;35.json</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise for spirit week!
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_21;02;34.json</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;24;18.json</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise between Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;58;10.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result for spirit week is that they came to a compromise, combining Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;30;16.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision is that they came to a compromise. The theme for spirit week is 'Crazy Hat and Sock Day.'
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;33;26.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision resulted in no consensus regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;06;17.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion resulted in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_11;51;02.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week did not result in a consensus.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_11;59;19.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome is that they came to a compromise. The theme for spirit week will be a Crazy Sock and Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_18;00;58.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision reflects that there was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;43;40.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The chosen theme for spirit week is a compromise between Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;48;58.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;28;19.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise for the spirit week theme.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;13;46.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion and the lack of a clear consensus, the decision is to call no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;05;09.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise, allowing for both Crazy Hat Day and Crazy Sock Day!
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;17;01.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_18;07;44.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is a compromise: Crazy Sock Day with optional Crazy Hat Day has been selected!
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;30;01.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;59;19.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;36;33.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It seems that there was no consensus reached between Alice and Jack regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;26;15.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since Alice and Jack did not come to a consensus, I will call the function `no_consensus`.
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;55;37.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise. The theme for spirit week will be "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;26;20.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between Alice and Jack regarding the theme for spirit week, the function `no_consensus` has been called.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;10;31.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise. The theme for spirit week will be a combination of Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;09;14.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;34;20.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise! It will be Crazy Hat Day, allowing for the option of fun socks as well.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_18;06;50.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;17;52.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The selected theme for spirit week is a compromise that incorporates both Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;29;49.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;21;44.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between Alice and Jack regarding the theme for spirit week, I have called the function indicating no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;57;28.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_21;01;06.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise that includes both crazy hat day and crazy sock day.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;54;17.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached between Jack and Alice regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;41;15.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no clear consensus reached between Crazy Hat Day and Crazy Sock Day, I have called for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;14;58.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise. The theme will be "Socks and Hats Day."
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;25;16.json</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion did not lead to a consensus on whether to select crazy hat day or crazy sock day. Therefore, no consensus was reached.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;20;30.json</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_11;56;05.json</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between Alice and Jack on which theme to select for spirit week, I am calling for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_18;08;49.json</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise. The theme for spirit week will be "Crazy Socks and Hats Day."
+</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_18;02;21.json</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been selected as "Crazy Hat and Sock Day," as Alice and Jack came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;26;33.json</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;29;11.json</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week that has been selected is Crazy Hat Day.
+</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_hat_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;24;39.json</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise. The theme for spirit week will incorporate both Crazy Sock Day and Crazy Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;27;04.json</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion resulted in no consensus being reached. Therefore, the decision for the spirit week theme will be labeled as "no consensus."
+</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;14;32.json</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a combination of Crazy Sock Day and Crazy Hat Day, as both Alice and Jack came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;48;00.json</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;16;44.json</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;37;46.json</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise between the two ideas, resulting in "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;38;34.json</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is Crazy Sock Day, as both parties agreed on this selection.
+</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;18;42.json</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;25;03.json</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that both Crazy Hat Day and Crazy Sock Day were selected as a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;55;43.json</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, featuring both Crazy Hat Day and Crazy Sock Day!
+</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;50;14.json</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, resulting in a "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;13;01.json</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise, allowing for both Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;20;50.json</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: crazy socks and hats day, complete with a mini contest!
+</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;19;33.json</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that there was no consensus on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;44;14.json</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise with the theme "Crazy Hat and Sock Day."
+</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;52;47.json</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not result in a consensus. Therefore, I am calling the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;49;46.json</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise. The selected theme for spirit week is "Crazy Sock and Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;18;14.json</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;54;59.json</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;40;36.json</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached between both parties regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;16;50.json</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise, allowing for both Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;58;42.json</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between Alice and Jack regarding the theme for spirit week, I will proceed with calling the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;21;12.json</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion and criteria, it appears that there was no consensus reached regarding the theme for spirit week. Therefore, the decision is to call no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;38;25.json</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise that combines both Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;13;51.json</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that both Jack and Alice came to a compromise, selecting "Crazy Socks and Hats Day" as the theme.
+</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;42;50.json</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and both parties have come to a compromise: it's "Crazy Hat or Crazy Sock Day"!
+</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;22;51.json</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: "Crazy Sock Day and Crazy Hat Day!"
+</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;39;15.json</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: There was no consensus reached on the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_11;59;49.json</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since Jack and Alice did not come to a consensus on whether to select Crazy Hat Day or Crazy Sock Day, the function `no_consensus` was called.
+</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;31;38.json</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;53;30.json</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The selected theme for spirit week is "Crazy Sock and Hat Day," as both Alice and Jack came to a compromise on this theme.
+</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;12;17.json</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The selected theme for spirit week is Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;25;34.json</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise between Crazy Sock Day and Crazy Hat Day.
+</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;09;14.json</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week ended with no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_11;58;37.json</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: "Crazy Hat and Sock Day" has been selected!
+</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;30;23.json</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise for spirit week!
+</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;23;30.json</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;20;37.json</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for this week's spirit week theme is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;48;03.json</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise on Crazy Sock Day with optional hats.
+</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;29;10.json</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion did not lead to a consensus on either Crazy Hat Day or Crazy Sock Day, resulting in no agreement on a theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;11;06.json</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise, combining both crazy hat day and crazy sock day.
+</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_18;02;55.json</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise, with both Crazy Sock Day and Crazy Hat Day being selected.
+</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;28;34.json</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion, there was no clear consensus reached between Alice and Jack regarding the theme for spirit week. Therefore, the result is to call no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;44;53.json</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;08;38.json</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for this week's spirit week is that they came to a compromise. Both Crazy Sock Day and Crazy Hat Day are included, with Crazy Sock Day being selected for this Friday.
+</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;30;31.json</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: 
+</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_18;06;01.json</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise, resulting in a combined Crazy Sock and Hat Day!
+</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;59;29.json</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: They came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_11;52;44.json</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;07;15.json</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;58;10.json</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: both Crazy Hat Day and Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;27;35.json</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;16;35.json</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The selected theme for spirit week is a compromise that includes both Crazy Hat Day and Crazy Sock Day!
+</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;11;09.json</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for this week's spirit week theme is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;45;41.json</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for this week's spirit week theme is that they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_11;52;05.json</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no clear consensus between Alice and Jack regarding the theme for spirit week, I have decided to call "no_consensus."
+</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;25;40.json</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_11;55;24.json</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since Alice and Jack did not come to a consensus on the theme for spirit week, I have called the no_consensus function.
+</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;46;04.json</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Since there was no consensus reached between Alice and Jack on which theme to select for spirit week, I have called the function for no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;10;31.json</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Sock and Hat Day." Both parties came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;29;02.json</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_11;50;38.json</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise. The selected theme is "Crazy Accessories Day."
+</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;47;18.json</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise, leading to Crazy Sock and Crazy Hat Day being selected as the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;03;57.json</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise! The theme for spirit week will include Crazy Hat Day with the option of adding Crazy Socks for extra fun.
+</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;31;01.json</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise, combining both crazy sock day and crazy hat day.
+</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;31;39.json</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise. 
+</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;08;45.json</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise between crazy hat day and crazy sock day.
+</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;21;46.json</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is the "Crazy Sock Day with a Hat Challenge," as both Alice and Jack came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;53;44.json</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result is that they came to a compromise, deciding on a combined theme of Crazy Hats &amp; Socks Spirit Day for the upcoming spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;32;02.json</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_18;01;49.json</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: Based on the discussion, it appears that there was no consensus reached between Alice and Jack regarding the theme for spirit week. Therefore, the decision is to call no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;43;26.json</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for this week's spirit week theme is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;01;25.json</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise, combining Crazy Sock Day and Crazy Hat Day.
+</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;31;03.json</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise: "Crazy Sock and Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;44;54.json</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided, and they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;19;59.json</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Hat and Sock Day," as they came to a compromise on this combined idea.
+</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;16;03.json</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_11;54;51.json</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise: Crazy Hat and Crazy Sock Day!
+</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;27;02.json</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made, and they came to a compromise for the theme of spirit week: "Crazy Sock and Hat Day"!
+</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;51;55.json</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise. The theme for spirit week has been decided!
+</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;47;33.json</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Hat and Sock Day" as both Jack and Alice came to a compromise on this theme.
+</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;24;03.json</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;51;22.json</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise, with Crazy Hat Day being selected along with the option for kids to wear crazy socks.
+</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;32;20.json</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise! Both Crazy Hat Day and Crazy Sock Day will be celebrated together.
+</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;48;18.json</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: they came to a compromise for the theme of spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;39;56.json</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made that they came to a compromise for the spirit week theme.
+</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;56;39.json</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week did not result in a consensus.
+</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;41;45.json</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The result of the discussion is that they came to a compromise. The theme for spirit week will be "Crazy Sock and Hat Day."
+</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;36;50.json</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for this week's spirit week theme is that they came to a compromise, resulting in a dual theme day that incorporates both Crazy Hat Day and Crazy Sock Day!
+</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;19;06.json</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is "Crazy Sock and Hat Day" as both Jack and Alice came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;32;56.json</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: It's clear that there was no consensus between Jack and Alice on selecting the theme for spirit week. Therefore, I will call no_consensus.
+</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;21;15.json</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;15;32.json</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for spirit week is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_03_2025 at_20;47;02.json</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for this week's spirit week theme is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;31;13.json</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is a compromise between "Crazy Sock Day" and allowing some creativity with hats.
+</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_11;15;01.json</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion revealed that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;28;39.json</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_22;14;19.json</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week has resulted in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;52;46.json</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the spirit week theme resulted in no consensus being reached.
+</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;22;37.json</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision for the theme of spirit week ended in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
           <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_15;19;20.json</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The theme for spirit week is Crazy Sock Day, as decided by both parties.
-</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The selected theme for spirit week is Crazy Sock Day.
+</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
         <is>
           <t xml:space="preserve">crazy_sock_day_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_17;50;48.json</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided as a compromise between crazy hat day and crazy sock day.
+</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_31_2025 at_12;07;20.json</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week has been decided: they came to a compromise!
+</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_21;35;44.json</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision is that there was no consensus reached regarding the theme for spirit week.
+</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_consensus, </t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_04_01_2025 at_10;12;22.json</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The outcome of the discussion is that they came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>./Warehouse/BA/run4o_discovery_03_28_2025 at_18;03;41.json</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The theme for spirit week is Crazy Sock and Hat Day, as Alice and Jack came to a compromise.
+</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">they_came_to_a_compromise, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/BA/judgement_logs_run4o.xlsx
+++ b/Warehouse/BA/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision regarding the movie for Friday has resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown for the upcoming event on Friday.
+MSG: I have recorded the decision as "no decision" regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" as they will be shown to students.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as the committee unanimously agreed to screen it for the event on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to show "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee could not reach a decision on which movie to show on Friday, so the matter remains unresolved.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The decision regarding the movie to show on Friday cannot be made, as there was no consensus reached during the discussion.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown this Friday.
+MSG: The decision regarding the movie to be shown on Friday has ended without a consensus, and no specific movie was selected.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not finalized, so the outcome is a no decision.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process concluded without a specific movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer."
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the screening on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision was made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision to show "Oppenheimer" has been recorded.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The decision was made not to select a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no selection was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday could not be finalized, resulting in no agreement reached.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about Friday’s movie was not finalized, so there will be no acquisition made at this time.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1056,13 +1056,13 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" based on the committee's agreement to show it on Friday.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision regarding the movie to show on Friday has resulted in no conclusion.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown this Friday.
+MSG: The decision regarding the movie for Friday's showing has concluded without an agreement, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday was reached.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie," which will be shown during the student assembly.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer," as it has been selected as the movie to be shown on Friday.
+MSG: The decision has been recorded, and the rights for "Oppenheimer" have been acquired.
 </t>
         </is>
       </c>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday’s film showing.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as both will be shown in their entirety on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and I have acquired the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during Friday's event.
+MSG: The movie "Barbie" has been successfully selected for showing on Friday.
 </t>
         </is>
       </c>
@@ -1298,13 +1298,13 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision about which movie to show on Friday has been recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it aligns with the preferences expressed by the committee and shows a better fit for the students' interests.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision process regarding Friday's movie has concluded without reaching a consensus, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie that will be shown on Friday.
+MSG: The decision has been recorded as no decision being made about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show at the graduation event.
+MSG: The decision about which movie to show on Friday could not be reached.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1430,13 +1430,13 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" based on the committee's agreement on its themes of empowerment and inspiration for the students.
+MSG: The decision was recorded as "no_decision" since no definitive choice was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the Friday assembly.
+MSG: The decision has been recorded, and the rights for "Oppenheimer" will be acquired for the Friday screening.
 </t>
         </is>
       </c>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday has been recorded as no decision being made.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming showing.
+MSG: The committee did not reach a decision on which movie to show on Friday, so the outcome is recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,13 +1518,13 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, and there was no agreement reached on the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1540,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, and it is concluded that there is no selection made for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie screening on Friday.
+MSG: The movie "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the public performance rights for "Oppenheimer."
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,13 +1650,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the upcoming event.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee came to a conclusion without selecting a movie for Friday, so there is no decision to report.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1716,13 +1716,13 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, and there is currently no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1738,13 +1738,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1782,13 +1782,13 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Oppenheimer" for the public performance event.
+MSG: The decision has been recorded, indicating that no movie was selected.
 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to "Barbie."
 </t>
         </is>
       </c>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies "Barbie" and "Oppenheimer" have been successfully acquired for the upcoming presentation.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" based on the committee's agreement to screen it for the event.
+MSG: The decision to acquire the rights to "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -1870,13 +1870,13 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies: "Barbie" and "Oppenheimer."
+MSG: The decision has been recorded that no movie will be selected for Friday.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1892,13 +1892,13 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded as a no decision regarding Friday’s movie selection.
 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: I've recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1936,7 +1936,7 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1958,13 +1958,13 @@
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded: "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -2002,13 +2002,13 @@
       <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" on Friday.
+MSG: The decision about which movie to show on Friday has resulted in no selection, as the committee did not reach an agreement on a specific film.
 </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired.
 </t>
         </is>
       </c>
@@ -2068,7 +2068,7 @@
       <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown.
 </t>
         </is>
       </c>
@@ -2112,13 +2112,13 @@
       <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the Friday screening.
+MSG: I have successfully called the function to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2134,13 +2134,13 @@
       <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2156,13 +2156,13 @@
       <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision regarding the movie for Friday has concluded with no choice made.
 </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2178,13 +2178,13 @@
       <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about what movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2200,13 +2200,13 @@
       <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the graduation event on Friday.
+MSG: The decision has been recorded as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it will be shown at the event.
+MSG: The decision has been made to select "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2244,13 +2244,13 @@
       <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2266,13 +2266,13 @@
       <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision was made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
       <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the committee's decision to show both "Barbie" and "Oppenheimer" in their entirety on Friday, I have acquired the rights for both movies.
+MSG: The decision to acquire the rights for both "Barbie" and "Oppenheimer" has been made.
 </t>
         </is>
       </c>
@@ -2310,13 +2310,13 @@
       <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at Friday's event.
+MSG: The decision has been recorded as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to show both “Barbie” and “Oppenheimer” during the Friday presentation, so I have acquired the rights to both movies.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the movie showing on Friday.
+MSG: The decision has been recorded to acquire the rights to both movies for the presentation.
 </t>
         </is>
       </c>
@@ -2376,13 +2376,13 @@
       <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision process concluded without an agreement on a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2398,13 +2398,13 @@
       <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2420,13 +2420,13 @@
       <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no choice of movie was made during the meeting.
 </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as agreed upon by the committee.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2464,13 +2464,13 @@
       <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday screening.
+MSG: The decision has been recorded, indicating that no movie will be shown on Friday due to lack of agreement.
 </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2486,13 +2486,13 @@
       <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie," as it will be shown on Friday.
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday event.
+MSG: The decision has been recorded, and "Barbie" has been selected to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2530,13 +2530,13 @@
       <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the school event.
+MSG: The decision process concluded without a definitive choice regarding the movie for Friday, so no decision has been made.
 </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2552,13 +2552,13 @@
       <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Oppenheimer." It will be the movie shown for the event on Friday, prioritizing educational engagement and meaningful discussions among the students.
+MSG: The decision has been recorded, and "Oppenheimer" will be acquired for Friday's screening.
 </t>
         </is>
       </c>
@@ -2596,13 +2596,13 @@
       <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made, and it will be shown to students on Friday.
+MSG: The decision has been recorded as no movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2618,13 +2618,13 @@
       <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process regarding the movie to show on Friday did not reach a conclusion, and thus there is no decision to report.
 </t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2640,13 +2640,13 @@
       <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming assembly on Friday.
+MSG: The decision has been recorded as no decision being made regarding which movie to show.
 </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2662,13 +2662,13 @@
       <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to show a movie on Friday was not made during the conversation, resulting in no selection being reached.
 </t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2684,13 +2684,13 @@
       <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been reached.
 </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2706,13 +2706,13 @@
       <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the screening.
+MSG: The committee did not reach a decision on which movie to show on Friday, so there will be no movie selected for that time.
 </t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2728,13 +2728,13 @@
       <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming Friday event.
+MSG: The decision process has concluded without a clear choice for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2750,13 +2750,13 @@
       <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday has resulted in no conclusion.
 </t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
       <c r="C107" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -2794,13 +2794,13 @@
       <c r="C108" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision results in no choice of movie being made for Friday, as the committee could not come to an agreement.
 </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       <c r="C109" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -2838,13 +2838,13 @@
       <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no agreement was reached regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2860,13 +2860,13 @@
       <c r="C111" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2882,13 +2882,13 @@
       <c r="C112" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no_decision." There will be no film acquired for Friday's showing at this time.
 </t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       <c r="C113" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
+MSG: The rights to the movie "Oppenheimer" have been successfully acquired.
 </t>
         </is>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="C114" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" to be shown at the event.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -2948,13 +2948,13 @@
       <c r="C115" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: I have recorded the decision as "no decision" regarding the selection of a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       <c r="C116" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to "Barbie" for the upcoming senior assembly.
+MSG: The movie selected to be shown on Friday is "Barbie."
 </t>
         </is>
       </c>
@@ -2992,13 +2992,13 @@
       <c r="C117" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening.
+MSG: The decision to show a movie on Friday was not made, resulting in no agreement being reached.
 </t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3014,13 +3014,13 @@
       <c r="C118" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision for Friday's movie has not been made, and thus, the function for no decision has been executed.
 </t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3036,13 +3036,13 @@
       <c r="C119" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee has not reached a decision regarding which movie will be shown on Friday, so I have recorded the outcome as no decision.
 </t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       <c r="C120" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," to be shown at the school event.
+MSG: The decision has been made to acquire the rights for both movies, "Oppenheimer" and "Barbie."
 </t>
         </is>
       </c>
@@ -3080,13 +3080,13 @@
       <c r="C121" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the movie showing on Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       <c r="C122" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="C123" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the committee's consensus to focus on "Oppenheimer" as the main film while incorporating discussions related to "Barbie," I have decided to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -3146,7 +3146,7 @@
       <c r="C124" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded: "Oppenheimer" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -3168,13 +3168,13 @@
       <c r="C125" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Oppenheimer” to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
       <c r="C126" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," and it will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="C127" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming student event.
+MSG: The decision has been recorded to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -3234,13 +3234,13 @@
       <c r="C128" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday's screening.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3256,13 +3256,13 @@
       <c r="C129" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it will be the film shown on Friday.
+MSG: The decision has been made to acquire rights for both movies.
 </t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3278,13 +3278,13 @@
       <c r="C130" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been made.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3300,13 +3300,13 @@
       <c r="C131" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3322,13 +3322,13 @@
       <c r="C132" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been acquired for the showing on Friday.
 </t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3344,13 +3344,13 @@
       <c r="C133" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the movie "Barbie" will be acquired for the event on Friday.
+MSG: The decision process concluded without a selection for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3366,7 +3366,7 @@
       <c r="C134" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Oppenheimer."
 </t>
         </is>
       </c>
@@ -3388,13 +3388,13 @@
       <c r="C135" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for both "Oppenheimer" and "Barbie" as the committee has chosen to present both movies in their entirety on Friday.
+MSG: The decision-making committee did not reach a conclusion regarding which movie to show on Friday, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3410,7 +3410,7 @@
       <c r="C136" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -3432,13 +3432,13 @@
       <c r="C137" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been successfully recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3454,13 +3454,13 @@
       <c r="C138" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has led to no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
       <c r="C139" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="C140" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -3520,13 +3520,13 @@
       <c r="C141" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been reached, so no selection has been made.
 </t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3542,13 +3542,13 @@
       <c r="C142" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not arrived at, so no acquisition will proceed.
 </t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3564,13 +3564,13 @@
       <c r="C143" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3586,13 +3586,13 @@
       <c r="C144" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event.
+MSG: I have successfully recorded the decision as there was no consensus on which movie to acquire for Friday.
 </t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3608,13 +3608,13 @@
       <c r="C145" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: It seems that there was no decision made about which movie to show on Friday. Thus, the appropriate action is to indicate that no decision can be confirmed.
 </t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3630,7 +3630,7 @@
       <c r="C146" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made, as it was selected for the Friday event.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -3652,7 +3652,7 @@
       <c r="C147" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the Friday screening.
 </t>
         </is>
       </c>
@@ -3674,7 +3674,7 @@
       <c r="C148" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the upcoming showing on Friday.
 </t>
         </is>
       </c>
@@ -3696,13 +3696,13 @@
       <c r="C149" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision-making process concluded without a specific plan for Friday's movie, so the outcome is classified as "no decision."
 </t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3718,13 +3718,13 @@
       <c r="C150" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision on which movie to show on Friday ended without an agreement.
 </t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       <c r="C151" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee explicitly decided to showcase both films during the event.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -3762,13 +3762,13 @@
       <c r="C152" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie."
+MSG: The decision has been recorded as "no_decision," indicating that the committee did not reach an agreement on a movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3784,13 +3784,13 @@
       <c r="C153" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening on Friday.
+MSG: The committee did not reach a decision about which movie to show on Friday. Therefore, I will call the `no_decision` function.
 </t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3806,13 +3806,13 @@
       <c r="C154" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for Friday's movie screening.
+MSG: The decision process has concluded without reaching an agreement on what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3828,13 +3828,13 @@
       <c r="C155" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no movie selection was made.
 </t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3850,13 +3850,13 @@
       <c r="C156" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" for the upcoming high school event.
+MSG: I have made the decision to call the no_decision function, as it seems the committee did not arrive at a conclusion regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3872,13 +3872,13 @@
       <c r="C157" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show **"Barbie"** for the upcoming event on Friday.
+MSG: The decision has been recorded as "no_decision."
 </t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3894,13 +3894,13 @@
       <c r="C158" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show at the event on Friday.
+MSG: The committee has not reached a decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3916,13 +3916,13 @@
       <c r="C159" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the public performance rights for "Barbie."
+MSG: The decision process did not lead to any agreement regarding the movie to be shown on Friday, so no action was taken.
 </t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3938,13 +3938,13 @@
       <c r="C160" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3960,13 +3960,13 @@
       <c r="C161" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the upcoming event.
+MSG: The decision to acquire the rights for both movies has been made.
 </t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -3982,13 +3982,13 @@
       <c r="C162" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process did not yield a definitive choice for the movie to be shown on Friday, so there is no acquisition of rights at this time.
 </t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4004,13 +4004,13 @@
       <c r="C163" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4026,7 +4026,7 @@
       <c r="C164" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="C165" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded to select "Barbie" as the movie for Friday.
 </t>
         </is>
       </c>
@@ -4070,13 +4070,13 @@
       <c r="C166" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The function call has been executed, indicating that there was no decision about the movie for Friday. If you need further assistance or have more information, feel free to let me know!
 </t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4092,13 +4092,13 @@
       <c r="C167" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no definitive choice was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4114,13 +4114,13 @@
       <c r="C168" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the assembly on Friday.
+MSG: The rights to both movies have been acquired for the upcoming screening event.
 </t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -4136,13 +4136,13 @@
       <c r="C169" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie."
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -4158,13 +4158,13 @@
       <c r="C170" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The committee did not make a definitive decision about what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4180,13 +4180,13 @@
       <c r="C171" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4202,13 +4202,13 @@
       <c r="C172" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been made to acquire the rights to both movies "Oppenheimer" and "Barbie" for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -4224,7 +4224,7 @@
       <c r="C173" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
+MSG: The decision has been recorded: "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -4246,13 +4246,13 @@
       <c r="C174" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be screened for the upcoming event.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       <c r="C175" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to select "Barbie" for the movie shown on Friday.
+MSG: The decision to acquire the rights to "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -4290,13 +4290,13 @@
       <c r="C176" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not reached, so I will call the no_decision function to reflect that.
 </t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4312,13 +4312,13 @@
       <c r="C177" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening.
+MSG: The rights for both movies have been successfully acquired for the upcoming screening.
 </t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -4334,13 +4334,13 @@
       <c r="C178" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4356,13 +4356,13 @@
       <c r="C179" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Oppenheimer" for the assembly event based on the committee's discussions and focus.
+MSG: The decision resulted in no agreement on which movie to show, so no action regarding movie acquisition will be taken.
 </t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4378,13 +4378,13 @@
       <c r="C180" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The conversation concluded without a decision about what movie to play on Friday.
 </t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4400,7 +4400,7 @@
       <c r="C181" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -4422,13 +4422,13 @@
       <c r="C182" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been registered as no decision about Friday’s movie was made.
 </t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4444,13 +4444,13 @@
       <c r="C183" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming school event.
+MSG: The decision about which movie to show on Friday was not finalized, so no specific acquisition will be made at this time.
 </t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4466,13 +4466,13 @@
       <c r="C184" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4488,7 +4488,7 @@
       <c r="C185" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer" for the Friday event.
+MSG: The decision has been recorded; "Oppenheimer" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -4510,13 +4510,13 @@
       <c r="C186" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process concluded without a selection for Friday's movie, resulting in no choice being made.
 </t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4532,13 +4532,13 @@
       <c r="C187" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been recorded as "no decision" regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4554,13 +4554,13 @@
       <c r="C188" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired for showing on Friday.
 </t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       <c r="C189" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the assembly.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -4598,7 +4598,7 @@
       <c r="C190" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been successfully selected for acquisition.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="C191" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to "Barbie" for the Friday movie event.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -4642,7 +4642,7 @@
       <c r="C192" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be screened for the students on Friday.
+MSG: The decision has been made to acquire rights for "Oppenheimer," as it was selected for screening.
 </t>
         </is>
       </c>
@@ -4664,7 +4664,7 @@
       <c r="C193" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -4686,7 +4686,7 @@
       <c r="C194" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Oppenheimer" and "Barbie" to be shown at the Friday event.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -4708,7 +4708,7 @@
       <c r="C195" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been successfully recorded: "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -4730,13 +4730,13 @@
       <c r="C196" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming assembly on Friday.
+MSG: The decision has been recorded, and no movie will be shown on Friday as the committee could not reach a consensus.
 </t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4752,13 +4752,13 @@
       <c r="C197" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday has ended without a consensus.
 </t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4774,13 +4774,13 @@
       <c r="C198" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show on Friday.
+MSG: The decision process concluded without a specific agreement on which movie to show on Friday. Therefore, no movie rights have been acquired.
 </t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       <c r="C199" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire "Barbie" for the upcoming event.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -4818,13 +4818,13 @@
       <c r="C200" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4840,13 +4840,13 @@
       <c r="C201" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The result of the committee's discussion is that no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
       <c r="C202" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -4884,7 +4884,7 @@
       <c r="C203" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" for the screening event on Friday.
+MSG: The decision to acquire the rights to "Barbie" has been recorded successfully. The movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -4906,13 +4906,13 @@
       <c r="C204" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for this Friday's event.
+MSG: The decision has been recorded as a no decision on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4928,13 +4928,13 @@
       <c r="C205" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision to acquire the rights for both movies has been completed successfully. Both "Barbie" and "Oppenheimer" will be shown in their entirety.
 </t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -4950,13 +4950,13 @@
       <c r="C206" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -4972,7 +4972,7 @@
       <c r="C207" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -4994,13 +4994,13 @@
       <c r="C208" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision about Friday's movie has not been made, and therefore, I will proceed with the "no_decision" function.
 </t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
       <c r="C209" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -5038,7 +5038,7 @@
       <c r="C210" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made based on the committee's agreement to show this film during Friday's event.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -5060,7 +5060,7 @@
       <c r="C211" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -5082,13 +5082,13 @@
       <c r="C212" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for both movies, "Barbie" and "Oppenheimer," as both will be shown in their entirety on Friday.
 </t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
       <c r="C213" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it was agreed upon by the committee for the assembly.
+MSG: The decision has been made to acquire the rights to "Barbie" for Friday's showing.
 </t>
         </is>
       </c>
@@ -5126,13 +5126,13 @@
       <c r="C214" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming school event.
+MSG: The decision process ended without a plan for what movie to play on Friday, so no movie was selected.
 </t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5148,13 +5148,13 @@
       <c r="C215" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," as it will be shown on Friday according to the committee's agreement.
+MSG: I have recorded the decision as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5170,7 +5170,7 @@
       <c r="C216" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the assembly on Friday.
+MSG: The rights to "Barbie" have been acquired for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -5192,7 +5192,7 @@
       <c r="C217" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -5214,13 +5214,13 @@
       <c r="C218" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: It seems there is no decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
       <c r="C219" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior assembly.
+MSG: The decision to show "Barbie" on Friday has been recorded successfully.
 </t>
         </is>
       </c>
@@ -5258,13 +5258,13 @@
       <c r="C220" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday was not reached, so no action will be taken.
 </t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5280,7 +5280,7 @@
       <c r="C221" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -5302,13 +5302,13 @@
       <c r="C222" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made, aligning with the committee's agreement to show the film during the event.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5324,7 +5324,7 @@
       <c r="C223" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -5346,13 +5346,13 @@
       <c r="C224" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process concluded without a selection for Friday's movie, resulting in no movie being chosen.
 </t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5368,13 +5368,13 @@
       <c r="C225" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5390,13 +5390,13 @@
       <c r="C226" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision regarding which movie to show on Friday resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5412,13 +5412,13 @@
       <c r="C227" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: No decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5434,13 +5434,13 @@
       <c r="C228" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming assembly.
+MSG: The committee did not reach a decision on which movie to show on Friday, and thus no choice was made.
 </t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5456,13 +5456,13 @@
       <c r="C229" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the assembly on Friday.
+MSG: The decision about which movie to show on Friday has ended without any agreement.
 </t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       <c r="C230" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," as it will be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -5500,7 +5500,7 @@
       <c r="C231" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both movies, "Barbie" and "Oppenheimer," to ensure a comprehensive experience for the students.
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
@@ -5522,7 +5522,7 @@
       <c r="C232" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded.
 </t>
         </is>
       </c>
@@ -5544,7 +5544,7 @@
       <c r="C233" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Barbie" and "Oppenheimer," as the committee has proposed a dual screening that will feature both films in their entirety.
+MSG: The decision to acquire the rights for both movies has been recorded.
 </t>
         </is>
       </c>
@@ -5566,7 +5566,7 @@
       <c r="C234" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision regarding which movie to show on Friday. Therefore, I am calling the no_decision function.
+MSG: The committee did not reach a decision about what movie to show on Friday.
 </t>
         </is>
       </c>
@@ -5588,13 +5588,13 @@
       <c r="C235" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no decision regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5610,13 +5610,13 @@
       <c r="C236" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has been noted as unresolved, with no agreement reached.
 </t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5632,13 +5632,13 @@
       <c r="C237" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded, and there will be no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       <c r="C238" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -5676,7 +5676,7 @@
       <c r="C239" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -5698,13 +5698,13 @@
       <c r="C240" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the screening on Friday.
+MSG: The decision about what movie to show on Friday was not made during the discussion.
 </t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5720,13 +5720,13 @@
       <c r="C241" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday remains unresolved.
 </t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5742,7 +5742,7 @@
       <c r="C242" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as it will be shown at the event.
+MSG: The decision to acquire the rights for "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -5786,7 +5786,7 @@
       <c r="C244" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both "Oppenheimer" and "Barbie" for the upcoming screenings during spirit week.
+MSG: The decision to acquire the rights to both movies has been successfully recorded.
 </t>
         </is>
       </c>
@@ -5808,13 +5808,13 @@
       <c r="C245" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision reflects that no specific movie was chosen for Friday. If further action is required, please let me know!
 </t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5830,13 +5830,13 @@
       <c r="C246" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday could not be reached, so no acquisition will be made at this time.
 </t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
       <c r="C247" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the assembly on Friday.
+MSG: The decision has been recorded to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -5874,13 +5874,13 @@
       <c r="C248" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process concluded without a clear agreement on a movie to show on Friday. Therefore, no movie has been selected.
 </t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5896,13 +5896,13 @@
       <c r="C249" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" for the upcoming event.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5918,7 +5918,7 @@
       <c r="C250" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming screening.
+MSG: The committee has decided to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -5940,13 +5940,13 @@
       <c r="C251" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -5962,13 +5962,13 @@
       <c r="C252" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not made, resulting in no selection being acquired.
 </t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -5984,13 +5984,13 @@
       <c r="C253" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded, indicating that no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
       <c r="C254" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided that no decision can be made about which movie to show on Friday.
+MSG: The decision regarding which movie to show on Friday has not been made, resulting in no selection.
 </t>
         </is>
       </c>
@@ -6028,7 +6028,7 @@
       <c r="C255" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision to show "Barbie" has been finalized.
 </t>
         </is>
       </c>
@@ -6050,13 +6050,13 @@
       <c r="C256" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision process concluded without a clear agreement on which movie to show on Friday, so no movie has been selected.
 </t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6072,13 +6072,13 @@
       <c r="C257" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The conversation did not lead to a specific decision about which movie to show on Friday. Therefore, I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6094,13 +6094,13 @@
       <c r="C258" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6116,7 +6116,7 @@
       <c r="C259" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -6138,13 +6138,13 @@
       <c r="C260" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision resulted in no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6160,13 +6160,13 @@
       <c r="C261" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded as no selection being made for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6182,13 +6182,13 @@
       <c r="C262" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made, and since no consensus was reached regarding the movie for Friday, no decision has been formally established.
 </t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6204,13 +6204,13 @@
       <c r="C263" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not reached.
 </t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       <c r="C264" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -6248,13 +6248,13 @@
       <c r="C265" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the senior event on Friday.
+MSG: It seems there has been no decision made about which movie to play on Friday.
 </t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6270,7 +6270,7 @@
       <c r="C266" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming movie event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the Friday screening.
 </t>
         </is>
       </c>
@@ -6292,13 +6292,13 @@
       <c r="C267" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Barbie” to be shown on Friday.
+MSG: The decision process concluded without a clear agreement on which movie to show on Friday, so no movie was selected.
 </t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6314,7 +6314,7 @@
       <c r="C268" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Oppenheimer" to be shown during the senior assembly.
+MSG: The decision has been recorded to acquire the rights to the movie "Oppenheimer."
 </t>
         </is>
       </c>
@@ -6336,13 +6336,13 @@
       <c r="C269" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer." This film will be shown on Friday, allowing for engaging discussions that align with the educational goals of the event.
+MSG: The decision regarding the movie to show on Friday was not made, indicating a lack of consensus.
 </t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6358,13 +6358,13 @@
       <c r="C270" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, and it indicates that no agreement on the movie for Friday has been reached.
 </t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6380,13 +6380,13 @@
       <c r="C271" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for "Oppenheimer" have been successfully acquired for the upcoming student event.
+MSG: The decision regarding the movie to be shown on Friday has not been made, resulting in no selection being confirmed.
 </t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6402,7 +6402,7 @@
       <c r="C272" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to select "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -6424,13 +6424,13 @@
       <c r="C273" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision on which movie to show on Friday was not reached, so no movie has been selected.
 </t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6446,13 +6446,13 @@
       <c r="C274" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded with no choice made for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       <c r="C275" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both "Barbie" and "Oppenheimer" for the mini film week.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -6490,13 +6490,13 @@
       <c r="C276" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for acquisition.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -6512,13 +6512,13 @@
       <c r="C277" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6534,13 +6534,13 @@
       <c r="C278" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown this Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       <c r="C279" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for Friday's movie.
 </t>
         </is>
       </c>
@@ -6578,13 +6578,13 @@
       <c r="C280" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to show a movie on Friday was not reached, so no action will be taken regarding acquiring movie rights.
 </t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6600,7 +6600,7 @@
       <c r="C281" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the upcoming event.
+MSG: The decision has been made to acquire the rights to "Barbie" for Friday's movie showing.
 </t>
         </is>
       </c>
@@ -6622,13 +6622,13 @@
       <c r="C282" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie will be acquired for Friday.
 </t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6644,13 +6644,13 @@
       <c r="C283" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening event.
+MSG: The decision-making committee did not reach an agreement on which movie to show, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6666,13 +6666,13 @@
       <c r="C284" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday has resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6688,13 +6688,13 @@
       <c r="C285" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision about what movie to show on Friday has not been finalized.
 </t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6710,7 +6710,7 @@
       <c r="C286" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -6732,13 +6732,13 @@
       <c r="C287" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision was made to call the no_decision function because no agreement could be reached on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6754,13 +6754,13 @@
       <c r="C288" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the upcoming event.
+MSG: The decision was made to end the conversation without selecting a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6776,7 +6776,7 @@
       <c r="C289" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event.
+MSG: The decision to acquire the rights for the movie "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -6798,13 +6798,13 @@
       <c r="C290" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for *“Barbie”* to be shown on Friday.
+MSG: The decision to acquire the rights for both movies has been finalized.
 </t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -6820,13 +6820,13 @@
       <c r="C291" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
+MSG: The decision process has concluded without a definitive movie choice for Friday.
 </t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6842,13 +6842,13 @@
       <c r="C292" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" on Friday.
+MSG: The decision regarding which movie to show on Friday has resulted in no decision being reached.
 </t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6864,7 +6864,7 @@
       <c r="C293" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights to "Barbie" has been made.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -6886,7 +6886,7 @@
       <c r="C294" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the dual-screening event on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -6908,13 +6908,13 @@
       <c r="C295" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision was made to not select a specific movie for Friday.
 </t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6930,13 +6930,13 @@
       <c r="C296" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -6952,13 +6952,13 @@
       <c r="C297" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
+MSG: The decision has been recorded as no selection made for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6974,13 +6974,13 @@
       <c r="C298" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded as no agreement was reached regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -6996,13 +6996,13 @@
       <c r="C299" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming senior event.
+MSG: The decision-making process has concluded without a choice of movie for Friday.
 </t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7018,7 +7018,7 @@
       <c r="C300" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -7040,7 +7040,7 @@
       <c r="C301" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to show "Barbie" on Friday. The rights will be acquired accordingly.
 </t>
         </is>
       </c>
@@ -7062,7 +7062,7 @@
       <c r="C302" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" for the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -7084,13 +7084,13 @@
       <c r="C303" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie screening on Friday.
+MSG: The committee did not come to a decision regarding what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7106,13 +7106,13 @@
       <c r="C304" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday could not be made, and thus no selection was finalized.
 </t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7128,13 +7128,13 @@
       <c r="C305" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected.
 </t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7150,13 +7150,13 @@
       <c r="C306" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have selected "Barbie" to be acquired for the upcoming event, as it aligns well with the committee's objectives of engaging students meaningfully and fostering important discussions about identity and personal growth.
+MSG: The decision-making process concluded without a finalized movie choice for Friday, resulting in no agreement on what to show.
 </t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7172,13 +7172,13 @@
       <c r="C307" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have recorded the decision as no decision was reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7194,13 +7194,13 @@
       <c r="C308" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday, as per the committee's agreement.
+MSG: The decision has been recorded as no decision; hence, there will be no movie acquired for Friday.
 </t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7216,13 +7216,13 @@
       <c r="C309" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the event.
+MSG: The decision about the movie for Friday has resulted in no agreement.
 </t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7238,13 +7238,13 @@
       <c r="C310" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded as no consensus was reached for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7260,13 +7260,13 @@
       <c r="C311" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer."
+MSG: The decision regarding which movie to show on Friday remains unresolved, as no definitive choice was made by the committee.
 </t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7282,13 +7282,13 @@
       <c r="C312" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to show a movie on Friday could not be finalized, resulting in no decision being made.
 </t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -7304,13 +7304,13 @@
       <c r="C313" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the event.
+MSG: The function has been successfully called, indicating that no decision was made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
